--- a/singles/difference2/jan_out.xlsx
+++ b/singles/difference2/jan_out.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BUS\busy\singles\difference2\"/>
@@ -13,13 +13,15 @@
   </bookViews>
   <sheets>
     <sheet name="jan" sheetId="1" r:id="rId1"/>
+    <sheet name="result" sheetId="3" r:id="rId2"/>
+    <sheet name="resultat" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4595" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="847">
   <si>
     <t>INVOICE</t>
   </si>
@@ -2551,13 +2553,22 @@
   </si>
   <si>
     <t>"1705493"</t>
+  </si>
+  <si>
+    <t>Рахимов Д.Р.</t>
+  </si>
+  <si>
+    <t>НЕТ В БАЗЕ</t>
+  </si>
+  <si>
+    <t>НЕТ НА ПОРТАЛЕ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2566,333 +2577,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2900,205 +2594,16 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3376,11 +2881,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ241"/>
+  <dimension ref="A1:AQ242"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I199" sqref="I199"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -28972,6 +28483,95 @@
       </c>
       <c r="AQ241">
         <v>207.78</v>
+      </c>
+    </row>
+    <row r="242" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AP242">
+        <f>SUM(AP3:AP241)</f>
+        <v>49973.299999999974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>845</v>
+      </c>
+      <c r="D2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>844</v>
+      </c>
+      <c r="B3">
+        <v>15.58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E3">
+        <v>288.99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>840</v>
+      </c>
+      <c r="B4">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <f>SUM(B3:B5)</f>
+        <v>50.21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <f>SUM(E3:E5)</f>
+        <v>588.99</v>
       </c>
     </row>
   </sheetData>
